--- a/Data/Transitions/19361945Translation.xlsx
+++ b/Data/Transitions/19361945Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="705">
   <si>
     <t>id</t>
   </si>
@@ -100,7 +100,7 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 0.9963619827194179, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 1.0}</t>
@@ -223,7 +223,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -250,7 +250,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544}</t>
+    <t>{107.0: 1.0}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 1.0, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 1.0, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -313,7 +313,7 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
@@ -337,7 +337,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -349,19 +349,19 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.40698361611390244, 850.0: 0.001083483836576113}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5930163838860975, 850.0: 0.0015787457807283794}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.40681549296858815, 850.0: 0.001085203048932546}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5931845070314118, 850.0: 0.0015823528030181042}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -373,13 +373,13 @@
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9216604108666339, 307.0: 0.022099447513812154}</t>
+    <t>{202.0: 0.9217296702120339, 307.0: 0.022099447513812154}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -388,13 +388,13 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -403,7 +403,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496}</t>
+    <t>{212.0: 0.9991932230738201}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -430,7 +430,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 503.0: 0.04728284124946513}</t>
+    <t>{222.0: 1.0, 503.0: 0.047506448839208945}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9990227217200097}</t>
+    <t>{249.0: 0.9990134418547293}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -541,7 +544,7 @@
     <t>{262.0: 0.9778834229020257}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{264.0: 1.0}</t>
@@ -556,7 +559,7 @@
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9974743723072352}</t>
+    <t>{277.0: 0.9974721189591078}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235}</t>
+    <t>{282.0: 0.9971910112359551}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 1.0, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 1.0, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,7 +658,7 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -706,9 +709,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -721,16 +721,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 141.0: 0.0015172204521316948}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.9981033392723719}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{402.0: 0.9989634083134653, 141.0: 0.0015172204521316948}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.9980654238480479}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -739,7 +739,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -772,7 +772,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -787,7 +787,7 @@
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9990803893018622}</t>
@@ -796,10 +796,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -844,13 +844,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.872347681529891}</t>
+    <t>{477.0: 0.872331559842872}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -883,13 +883,13 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 1.0, 503.0: 0.007702182284980745}</t>
+    <t>{490.0: 1.0, 503.0: 0.007738607050730868}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -922,7 +922,7 @@
     <t>{502.0: 1.0}</t>
   </si>
   <si>
-    <t>{503.0: 0.9450149764655541}</t>
+    <t>{503.0: 0.9447549441100602}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -958,7 +958,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -1030,7 +1030,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9980719794344473, 752.0: 0.04920514761544285}</t>
+    <t>{580.0: 0.9981181109418407, 752.0: 0.04937333839726547}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -1072,7 +1072,7 @@
     <t>{593.0: 1.0, 171.0: 0.005747126436781609}</t>
   </si>
   <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1099,7 +1099,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1174,7 +1174,7 @@
     <t>{628.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1189,7 +1189,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.9963536918869644}</t>
+    <t>{634.0: 0.9964896884598509}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1198,7 +1198,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1228,7 +1228,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658}</t>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1252,10 +1252,10 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9819587628865979}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{695.0: 0.9820117474302497}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1270,7 +1270,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1354,7 +1354,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9507948523845572, 580.0: 0.0019280205655526992}</t>
+    <t>{752.0: 0.9506266616027346, 580.0: 0.0018818890581593333}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1369,7 +1369,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 1.0, 634.0: 0.0036463081130355514}</t>
+    <t>{757.0: 1.0, 634.0: 0.0035103115401491883}</t>
   </si>
   <si>
     <t>{758.0: 0.9980630879911455, 583.0: 0.0016375545851528383}</t>
@@ -1408,7 +1408,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1438,13 +1438,13 @@
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1459,7 +1459,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1477,13 +1477,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 1.0, 836.0: 0.0014807502467917078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9985192497532083}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833}</t>
+    <t>{835.0: 1.0, 836.0: 0.0014044943820224719}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9985955056179775}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1504,7 +1504,7 @@
     <t>{843.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1522,19 +1522,19 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.07833958913336612, 680.0: 0.002957121734844751, 477.0: 0.05008694822181192}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.07827032978796614, 680.0: 0.002957121734844751, 477.0: 0.05008602257471036}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1543,7 +1543,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1588,16 +1588,16 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -1612,7 +1612,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1642,7 +1642,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1651,7 +1651,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9965801756052919}</t>
+    <t>{922.0: 0.9965078673810798}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1672,10 +1672,10 @@
     <t>{928.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.002861685214626391}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9971383147853736, 929.0: 0.0017969956479011652}</t>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.002952271608988027}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.997047728391012, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1684,7 +1684,7 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.0009772782799902272}</t>
+    <t>{933.0: 1.0, 249.0: 0.000986558145270687}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
@@ -1696,7 +1696,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
+    <t>{942.0: 0.9907869481765835}</t>
   </si>
   <si>
     <t>{943.0: 1.0}</t>
@@ -1720,7 +1720,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1735,7 +1735,7 @@
     <t>{975.0: 1.0}</t>
   </si>
   <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1762,7 +1762,7 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.9957854406130269}</t>
+    <t>{992.0: 0.9957918898240244}</t>
   </si>
   <si>
     <t>{9.0: 0.9995276334435522, 208.0: 0.0004723665564478035}</t>
@@ -1783,16 +1783,13 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0}</t>
-  </si>
-  <si>
     <t>{140.0: 0.9858227848101265, 762.0: 0.014177215189873417}</t>
   </si>
   <si>
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289217}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1804,7 +1801,7 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051422, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1819,13 +1816,13 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.5993060590489727, 180.0: 0.40051465954568, 850.0: 0.00017928140534721575}</t>
+    <t>{179.0: 0.6003432513722297, 180.0: 0.3994779312905765, 850.0: 0.00017881733719363324}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069351, 850.0: 0.00044742729306487686}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971718123968888, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073768}</t>
+    <t>{182.0: 0.9971607713237903, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944754}</t>
   </si>
   <si>
     <t>{202.0: 0.9984214680347278, 307.0: 0.0015785319652722968}</t>
@@ -1834,7 +1831,7 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.998085701663967, 688.0: 0.001914298336032985}</t>
@@ -1846,19 +1843,19 @@
     <t>{212.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8492496589358798, 503.0: 0.15075034106412005}</t>
+    <t>{222.0: 0.8489405331510596, 503.0: 0.15105946684894053}</t>
   </si>
   <si>
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628103, 297.0: 0.00018045618356780216, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524385, 297.0: 0.0001786147939395593, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427765, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893284, 241.0: 0.7619738000310672}</t>
+    <t>{240.0: 0.23802619996893293, 241.0: 0.7619738000310672}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1873,10 +1870,10 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492866}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862117, 942.0: 0.0002797618337629159}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1888,19 +1885,19 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.013922582006117505}</t>
+    <t>{298.0: 0.986078886310905, 297.0: 0.013921113689095122}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
+    <t>{303.0: 0.997686969930609, 144.0: 0.002313030069390902}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 0.9257801422662857, 426.0: 0.0731432659158121, 204.0: 0.001076591817902184}</t>
+    <t>{309.0: 0.9281137216879631, 426.0: 0.07086273685860801, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -1918,10 +1915,10 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.9975391498881432, 404.0: 0.0024608501118568234}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
@@ -1933,7 +1930,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749247, 431.0: 0.00018684574941587378, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.999281049806884, 431.0: 0.00035663135253636115, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1951,13 +1948,13 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977858, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9974491964968968, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294479, 503.0: 0.02208588957055215}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9974491964968965, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -1984,7 +1981,7 @@
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643214, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.988462903798367, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -2002,7 +1999,7 @@
     <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774044}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225909, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.9960505529225909, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.974858757062147, 475.0: 0.02514124293785311}</t>
@@ -2023,7 +2020,7 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458069, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852505, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972789, 208.0: 0.042517006802721094}</t>
@@ -2035,10 +2032,10 @@
     <t>{696.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9917094354520329, 580.0: 0.008290564547966837}</t>
-  </si>
-  <si>
-    <t>{757.0: 0.9970781592403215, 634.0: 0.0029218407596785976}</t>
+    <t>{752.0: 0.9916798732171153, 580.0: 0.00832012678288431}</t>
+  </si>
+  <si>
+    <t>{757.0: 0.9966315789473681, 634.0: 0.0033684210526315796}</t>
   </si>
   <si>
     <t>{758.0: 0.9991689750692521, 583.0: 0.0008310249307479224}</t>
@@ -2047,10 +2044,10 @@
     <t>{762.0: 0.9509029955661297, 141.0: 0.049097004433870446}</t>
   </si>
   <si>
-    <t>{770.0: 0.980357142857143, 992.0: 0.019642857142857142}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725945, 81.0: 0.0003498542274052478}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.0003498542274052478}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -2077,16 +2074,16 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.989914662529092, 922.0: 0.01008533747090768}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
   </si>
   <si>
     <t>{853.0: 0.9852427785488043, 202.0: 0.008472655641214591, 680.0: 8.597857132270854e-05, 477.0: 0.006198587238658523}</t>
   </si>
   <si>
-    <t>{854.0: 0.99734555984556, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940952, 695.0: 0.0072335400059049286}</t>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997019, 695.0: 0.007303622000298107}</t>
   </si>
   <si>
     <t>{886.0: 1.0}</t>
@@ -2101,19 +2098,19 @@
     <t>{896.0: 0.8730158730158731, 209.0: 0.1035923141186299, 400.0: 0.0075187969924812035, 432.0: 0.00835421888053467, 895.0: 0.0075187969924812035}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418464, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.994110429447853, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.9992411040530667, 930.0: 0.0007588959469334983}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9932432432432432, 929.0: 0.006756756756756758}</t>
-  </si>
-  <si>
-    <t>{933.0: 0.9990142927550515, 249.0: 0.0009857072449482504}</t>
+    <t>{929.0: 0.9992200476637537, 930.0: 0.0007799523362461183}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9930302205281787, 929.0: 0.006969779471821399}</t>
+  </si>
+  <si>
+    <t>{933.0: 0.9990069513406155, 249.0: 0.0009930486593843098}</t>
   </si>
   <si>
     <t>{937.0: 0.9949109414758269, 85.0: 0.005089058524173028}</t>
@@ -3339,7 +3336,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>589</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3394,7 +3391,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3405,7 +3402,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3416,7 +3413,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3427,7 +3424,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3438,7 +3435,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3515,7 +3512,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3570,7 +3567,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3625,7 +3622,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3658,7 +3655,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3669,7 +3666,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3702,7 +3699,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3713,7 +3710,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3724,7 +3721,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3746,7 +3743,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3790,7 +3787,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3812,7 +3809,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3845,7 +3842,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3856,7 +3853,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3867,7 +3864,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3900,7 +3897,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3999,7 +3996,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4032,7 +4029,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4043,7 +4040,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4098,7 +4095,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4175,7 +4172,7 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4186,12 +4183,12 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4202,7 +4199,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4213,7 +4210,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4224,7 +4221,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4235,7 +4232,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4246,40 +4243,40 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>616</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>616</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4290,7 +4287,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4301,7 +4298,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4312,7 +4309,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4323,7 +4320,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4334,7 +4331,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4345,7 +4342,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4356,7 +4353,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4367,7 +4364,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4378,7 +4375,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4389,40 +4386,40 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>618</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>618</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4444,7 +4441,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4455,29 +4452,29 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>620</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>619</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4488,7 +4485,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4499,7 +4496,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4510,7 +4507,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4521,7 +4518,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4532,29 +4529,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>621</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>620</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4565,7 +4562,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4576,7 +4573,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4587,29 +4584,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>622</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>621</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4620,7 +4617,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4642,7 +4639,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4653,7 +4650,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4664,7 +4661,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4675,7 +4672,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4686,7 +4683,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4697,7 +4694,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4708,7 +4705,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4719,7 +4716,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4730,7 +4727,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4741,7 +4738,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4752,40 +4749,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>623</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>623</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4796,51 +4793,51 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>625</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>624</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>626</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4851,7 +4848,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4862,51 +4859,51 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>627</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>218</v>
+        <v>626</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>628</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>627</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4917,29 +4914,29 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>611</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>223</v>
+        <v>610</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4950,7 +4947,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4961,7 +4958,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4972,7 +4969,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4983,7 +4980,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4994,7 +4991,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -5005,7 +5002,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
@@ -5033,7 +5030,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5044,7 +5041,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5066,7 +5063,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5077,7 +5074,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5088,7 +5085,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5099,7 +5096,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5132,7 +5129,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5253,7 +5250,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5308,7 +5305,7 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5319,7 +5316,7 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5341,7 +5338,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5352,7 +5349,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5363,7 +5360,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5473,7 +5470,7 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5495,7 +5492,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5517,7 +5514,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5539,7 +5536,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5660,7 +5657,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5682,7 +5679,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5803,7 +5800,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5847,7 +5844,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5880,7 +5877,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5935,7 +5932,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5979,7 +5976,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6056,7 +6053,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6089,7 +6086,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6100,7 +6097,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6199,7 +6196,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6210,7 +6207,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6232,7 +6229,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6287,7 +6284,7 @@
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6342,7 +6339,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6353,7 +6350,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6452,7 +6449,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6463,7 +6460,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6507,7 +6504,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6727,7 +6724,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6782,7 +6779,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6815,7 +6812,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6848,7 +6845,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6925,7 +6922,7 @@
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6936,7 +6933,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7013,7 +7010,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -7024,7 +7021,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7079,7 +7076,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7387,7 +7384,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7442,7 +7439,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7453,7 +7450,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7497,7 +7494,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7585,7 +7582,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7695,7 +7692,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7717,7 +7714,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7772,7 +7769,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7816,7 +7813,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7838,7 +7835,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7849,7 +7846,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7860,7 +7857,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7937,7 +7934,7 @@
         <v>496</v>
       </c>
       <c r="C495" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8003,7 +8000,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8025,7 +8022,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8036,7 +8033,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8047,7 +8044,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8080,7 +8077,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8168,7 +8165,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8245,7 +8242,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8267,7 +8264,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8278,7 +8275,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8333,7 +8330,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8443,7 +8440,7 @@
         <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -8476,7 +8473,7 @@
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -8553,7 +8550,7 @@
         <v>552</v>
       </c>
       <c r="C551" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -8564,7 +8561,7 @@
         <v>553</v>
       </c>
       <c r="C552" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -8597,7 +8594,7 @@
         <v>556</v>
       </c>
       <c r="C555" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -8641,7 +8638,7 @@
         <v>560</v>
       </c>
       <c r="C559" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -8696,7 +8693,7 @@
         <v>565</v>
       </c>
       <c r="C564" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -8729,7 +8726,7 @@
         <v>568</v>
       </c>
       <c r="C567" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -8784,7 +8781,7 @@
         <v>573</v>
       </c>
       <c r="C572" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -8817,7 +8814,7 @@
         <v>576</v>
       </c>
       <c r="C575" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -8883,7 +8880,7 @@
         <v>582</v>
       </c>
       <c r="C581" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
